--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_300__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_300__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,16 +5990,16 @@
                   <c:v>58.52853012084961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.840087890625</c:v>
+                  <c:v>51.84008026123047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.32675170898438</c:v>
+                  <c:v>45.32675552368164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.80080032348633</c:v>
+                  <c:v>55.80080413818359</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>45.79214477539062</c:v>
@@ -6008,61 +6008,61 @@
                   <c:v>1.592677712440491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>51.35541534423828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50.67561721801758</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.85753631591797</c:v>
+                  <c:v>48.85754013061523</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44.02660751342773</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>52.90865707397461</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.30503845214844</c:v>
+                  <c:v>33.30503463745117</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>27.62407493591309</c:v>
@@ -6071,37 +6071,37 @@
                   <c:v>35.29077529907227</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.14234352111816</c:v>
+                  <c:v>25.1423454284668</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53.29605102539062</c:v>
+                  <c:v>53.29605484008789</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>50.87270355224609</c:v>
@@ -6113,118 +6113,118 @@
                   <c:v>27.4864444732666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>51.02487564086914</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>13.55911636352539</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.74102306365967</c:v>
+                  <c:v>10.74102401733398</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57.53092193603516</c:v>
+                  <c:v>57.53091430664062</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>38.8950309753418</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.92856597900391</c:v>
+                  <c:v>49.92856216430664</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51.52924728393555</c:v>
+                  <c:v>51.52923583984375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>52.4497184753418</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51.25788879394531</c:v>
+                  <c:v>51.25788497924805</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13.4638204574585</c:v>
+                  <c:v>13.46381950378418</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>51.86407852172852</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>16.88698196411133</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>51.80524826049805</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>32.59207916259766</c:v>
+                  <c:v>32.59208297729492</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>28.0395565032959</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40.64559936523438</c:v>
+                  <c:v>40.64559555053711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53.43424224853516</c:v>
+                  <c:v>53.43424987792969</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>53.49444961547852</c:v>
+                  <c:v>53.49445343017578</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>44.62865447998047</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.80960083007812</c:v>
+                  <c:v>11.80960273742676</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>50.20300674438477</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.353788375854492</c:v>
+                  <c:v>5.353787899017334</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>37.53384399414062</c:v>
+                  <c:v>37.53384780883789</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>37.54484558105469</c:v>
@@ -6233,43 +6233,43 @@
                   <c:v>61.27013397216797</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>48.91696548461914</c:v>
+                  <c:v>48.91696929931641</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>17.57309150695801</c:v>
+                  <c:v>17.57309341430664</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51.98602676391602</c:v>
+                  <c:v>51.98601913452148</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>22.34257316589355</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26.44184303283691</c:v>
+                  <c:v>26.44184684753418</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>43.36941909790039</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>47.96438598632812</c:v>
@@ -6284,7 +6284,7 @@
                   <c:v>27.20729827880859</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.328367590904236</c:v>
+                  <c:v>1.328366994857788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>51.840087890625</v>
+        <v>51.84008026123047</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>45.32675170898438</v>
+        <v>45.32675552368164</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.80080032348633</v>
+        <v>55.80080413818359</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>48.85753631591797</v>
+        <v>48.85754013061523</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>33.30503845214844</v>
+        <v>33.30503463745117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>25.14234352111816</v>
+        <v>25.1423454284668</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>53.29605102539062</v>
+        <v>53.29605484008789</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.74102306365967</v>
+        <v>10.74102401733398</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>57.53092193603516</v>
+        <v>57.53091430664062</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>49.92856597900391</v>
+        <v>49.92856216430664</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>51.52924728393555</v>
+        <v>51.52923583984375</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>51.25788879394531</v>
+        <v>51.25788497924805</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>13.4638204574585</v>
+        <v>13.46381950378418</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>32.59207916259766</v>
+        <v>32.59208297729492</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>40.64559936523438</v>
+        <v>40.64559555053711</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>53.43424224853516</v>
+        <v>53.43424987792969</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>53.49444961547852</v>
+        <v>53.49445343017578</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>11.80960083007812</v>
+        <v>11.80960273742676</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>5.353788375854492</v>
+        <v>5.353787899017334</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>37.53384399414062</v>
+        <v>37.53384780883789</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>48.91696548461914</v>
+        <v>48.91696929931641</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>17.57309150695801</v>
+        <v>17.57309341430664</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>51.98602676391602</v>
+        <v>51.98601913452148</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>26.44184303283691</v>
+        <v>26.44184684753418</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.328367590904236</v>
+        <v>1.328366994857788</v>
       </c>
     </row>
     <row r="102" spans="1:6">
